--- a/cropped_and_labeled_image_data/2011_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2011_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,672 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bechky &amp; Okhuysen_2011_AMJ_Expecting the Unexpected.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P17_Bechky &amp; Okhuysen_2011_AMJ_Expecting the Unexpected.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P17_Bechky &amp; Okhuysen_2011_AMJ_Expecting the Unexpected.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bryant &amp; Jaworski_2011_HR_Gender embodiment and place.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F1_P9_Bryant &amp; Jaworski_2011_HR_Gender embodiment and place.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P9_Bryant &amp; Jaworski_2011_HR_Gender embodiment and place.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bryant &amp; Jaworski_2011_HR_Gender embodiment and place.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F2_P11_Bryant &amp; Jaworski_2011_HR_Gender embodiment and place.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F2_P11_Bryant &amp; Jaworski_2011_HR_Gender embodiment and place.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cameron &amp; Webster_2011_OrgSci_Relational Outcomes or Multicommunicating.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1_P9_Cameron &amp; Webster_2011_OrgSci_Relational Outcomes or Multicommunicating.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P9_Cameron &amp; Webster_2011_OrgSci_Relational Outcomes or Multicommunicating.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Davis &amp; Eisenhardt_2011_ASQ_Rotating Leadership and Collaborative Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F1_P32_Davis &amp; Eisenhardt_2011_ASQ_Rotating Leadership and Collaborative Innovation.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P32_Davis &amp; Eisenhardt_2011_ASQ_Rotating Leadership and Collaborative Innovation.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kaplan_2011_OrgSci_Strategy and Powerpoint.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F1_P2_Kaplan_2011_OrgSci_Strategy and Powerpoint.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P2_Kaplan_2011_OrgSci_Strategy and Powerpoint.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kaplan_2011_OrgSci_Strategy and Powerpoint.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F2_P13_Kaplan_2011_OrgSci_Strategy and Powerpoint.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F2_P13_Kaplan_2011_OrgSci_Strategy and Powerpoint.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kaplan_2011_OrgSci_Strategy and Powerpoint.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F3_P14_Kaplan_2011_OrgSci_Strategy and Powerpoint.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F3_P14_Kaplan_2011_OrgSci_Strategy and Powerpoint.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kwee_2011_J Management Studies_The Influence of Top Management Team s Corporate Governance Orientation on Strategic.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F1_P7_Kwee_2011_J Management Studies_The Influence of Top Management Team s Corporate Governance Orientation on Strategic.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P7_Kwee_2011_J Management Studies_The Influence of Top Management Team s Corporate Governance Orientation on Strategic.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Laer &amp; Janssens_2011_HR_Ethnic minority professionals experiences with subtle discrimination in the workplace.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F1_P8_Laer &amp; Janssens_2011_HR_Ethnic minority professionals experiences with subtle discrimination in the workplace.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P8_Laer &amp; Janssens_2011_HR_Ethnic minority professionals experiences with subtle discrimination in the workplace.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Leonardi_2011_OrgSci_Innovation Blindness.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F1_P1_Leonardi_2011_OrgSci_Innovation Blindness.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P1_Leonardi_2011_OrgSci_Innovation Blindness.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Michel_2011_ASQ_Transcending Socialization - a Nine Year Ethnography on the Bodys Role in Organizational Control and Knowledge Worker Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1_P27_Michel_2011_ASQ_Transcending Socialization - a Nine Year Ethnography on the Bodys Role in Organizational Control and Knowledge Worker Transformation.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P27_Michel_2011_ASQ_Transcending Socialization - a Nine Year Ethnography on the Bodys Role in Organizational Control and Knowledge Worker Transformation.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nordenflycht_2011_OrgSci_Explaining Employee Engagement with Strategic Change.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F1_P9_Nordenflycht_2011_OrgSci_Explaining Employee Engagement with Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P9_Nordenflycht_2011_OrgSci_Explaining Employee Engagement with Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F2_P11_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F2_P11_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F3_P13_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F3_P13_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F4_P19_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F4_P19_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Walsh &amp; Bartuken_2011_AMJ_Cheating the Fates Organizational Foundings in the Wake of Demise.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F1_P13_Walsh &amp; Bartuken_2011_AMJ_Cheating the Fates Organizational Foundings in the Wake of Demise.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P13_Walsh &amp; Bartuken_2011_AMJ_Cheating the Fates Organizational Foundings in the Wake of Demise.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Wong, Ormiston &amp; Tetlock_2011_AMJ_The Effects of Top Management Team Integrative Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F1_P11_Wong, Ormiston &amp; Tetlock_2011_AMJ_The Effects of Top Management Team Integrative Complexity.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P11_Wong, Ormiston &amp; Tetlock_2011_AMJ_The Effects of Top Management Team Integrative Complexity.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2011_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2011_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,6 +1146,191 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Barley, Meyerson &amp; Grodal_2011_OrgSci_E-Mail as a Source and Symbol of Stress.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F1_P14_Barley, Meyerson &amp; Grodal_2011_OrgSci_E-Mail as a Source and Symbol of Stress.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P14_Barley, Meyerson &amp; Grodal_2011_OrgSci_E-Mail as a Source and Symbol of Stress.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bluhm_2011_J Management Studies_Qualitative Research in Management  A Decade of Progress.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F1_P7_Bluhm_2011_J Management Studies_Qualitative Research in Management  A Decade of Progress.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P7_Bluhm_2011_J Management Studies_Qualitative Research in Management  A Decade of Progress.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kellogg_2011_OrgSci_Hot Lights and Cold Steel.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F1_P16_Kellogg_2011_OrgSci_Hot Lights and Cold Steel.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P16_Kellogg_2011_OrgSci_Hot Lights and Cold Steel.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F1_P8_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P8_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Whiteman &amp; Cooper_2011_AMJ_Ecological Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F1_P11_Whiteman &amp; Cooper_2011_AMJ_Ecological Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2011/F1_P11_Whiteman &amp; Cooper_2011_AMJ_Ecological Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2011_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2011_cropped_and_labeled_figs.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>data collection, data analysis, data gathering diagrams</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -991,7 +991,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>line graph</t>
         </is>
       </c>
       <c r="I20" t="b">

--- a/cropped_and_labeled_image_data/2011_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2011_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,11 +539,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>data collection, data analysis, data gathering diagrams</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -584,11 +573,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -624,9 +610,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -695,11 +675,8 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -732,11 +709,8 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -772,9 +746,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -883,9 +848,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -954,11 +913,8 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -994,9 +950,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1068,9 +1018,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1105,9 +1052,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1139,11 +1083,8 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1176,11 +1117,8 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1216,9 +1154,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1253,9 +1188,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1290,9 +1222,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1326,9 +1255,6 @@
         <is>
           <t>timeline</t>
         </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
